--- a/2020_1/projeto_integrador/GRUPOS v2.xlsx
+++ b/2020_1/projeto_integrador/GRUPOS v2.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rambim\Documents\iesb\2020_1\projeto_integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B484CCA-8ABC-436D-901D-428E4B3A0BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD94BECD-D665-4659-9420-52B9E0D68125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="agenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -317,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +332,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,9 +1043,7 @@
       <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>81</v>
-      </c>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1053,6 +1051,9 @@
       </c>
       <c r="B6" s="1" t="s">
         <v>63</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">

--- a/2020_1/projeto_integrador/GRUPOS v2.xlsx
+++ b/2020_1/projeto_integrador/GRUPOS v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rambim\Documents\iesb\2020_1\projeto_integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD94BECD-D665-4659-9420-52B9E0D68125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C60A9-2E4C-47AF-9B88-905C2A437568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="76">
   <si>
     <t>GRUPO</t>
   </si>
@@ -85,42 +85,12 @@
     <t>R</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>INTEGRANTE 1</t>
   </si>
   <si>
     <t>INTEGRANTE 2</t>
   </si>
   <si>
-    <t>ALGORITMO</t>
-  </si>
-  <si>
-    <t>APLICAÇÃO</t>
-  </si>
-  <si>
-    <t>DATASET</t>
-  </si>
-  <si>
-    <t>ESQUELETO TRABALHO ESCRITO</t>
-  </si>
-  <si>
     <t>BRUNA IGLESIAS</t>
   </si>
   <si>
@@ -181,9 +151,6 @@
     <t>LEONARDO NUNES</t>
   </si>
   <si>
-    <t>ANDRE</t>
-  </si>
-  <si>
     <t>BRUNO DE AMORIM</t>
   </si>
   <si>
@@ -238,24 +205,12 @@
     <t>GRUPO J</t>
   </si>
   <si>
-    <t>Reunião agendada</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>GRUPO N</t>
   </si>
   <si>
     <t>ESTADO</t>
   </si>
   <si>
-    <t>Solicitação de reunião enviada</t>
-  </si>
-  <si>
     <t>GRUPO B</t>
   </si>
   <si>
@@ -275,6 +230,30 @@
   </si>
   <si>
     <t>grupo k</t>
+  </si>
+  <si>
+    <t>não confirmado</t>
+  </si>
+  <si>
+    <t>confirmado</t>
+  </si>
+  <si>
+    <t>GABRIEL RODRIGUES</t>
+  </si>
+  <si>
+    <t>GRUPO F</t>
+  </si>
+  <si>
+    <t>GRUPO G</t>
+  </si>
+  <si>
+    <t>GRUPO K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANDRE </t>
+  </si>
+  <si>
+    <t>GRUPO M</t>
   </si>
 </sst>
 </file>
@@ -290,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,7 +278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -328,11 +313,18 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,323 +605,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="29.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>43919</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>43919</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="I11" s="3">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>43919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="I19" s="3">
-        <v>43919</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -939,713 +871,1405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71B5CC9-5BC3-4ACB-9CE6-654E18FD813F}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D1" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.74305555555555547</v>
       </c>
       <c r="E1" s="4">
-        <v>0.74305555555555547</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="F1" s="4">
-        <v>0.75694444444444453</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="G1" s="4">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="H1" s="4">
         <v>0.78472222222222221</v>
       </c>
-      <c r="I1" s="4">
-        <v>0.79861111111111116</v>
-      </c>
-      <c r="J1" s="2">
+      <c r="H1" s="2">
         <v>0.92361111111111116</v>
       </c>
-      <c r="K1" s="2">
+      <c r="I1" s="2">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43919</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43920</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43921</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43922</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43923</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43924</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43925</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43926</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43927</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43928</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43929</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43930</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43931</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43932</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43933</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43934</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43935</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43936</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43937</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43938</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43939</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43940</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43941</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43942</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43943</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43944</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43945</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43946</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43947</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43948</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43949</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43950</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43951</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43952</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43953</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43954</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43955</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43956</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43957</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43958</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43959</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43960</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43961</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43962</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43963</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43964</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43965</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43966</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43967</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43968</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43969</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43970</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43971</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43972</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43973</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43974</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43975</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43976</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43977</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43978</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43979</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43980</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43981</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43982</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43983</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43984</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43985</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43986</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43987</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43988</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43989</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43990</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43991</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43992</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43993</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43994</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43995</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43996</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43997</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1653,7 +2277,7 @@
         <v>43998</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1661,7 +2285,7 @@
         <v>43999</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1669,7 +2293,7 @@
         <v>44000</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1677,7 +2301,7 @@
         <v>44001</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1685,7 +2309,7 @@
         <v>44002</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1693,7 +2317,7 @@
         <v>44003</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1701,7 +2325,7 @@
         <v>44004</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1709,7 +2333,7 @@
         <v>44005</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1717,7 +2341,7 @@
         <v>44006</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1725,7 +2349,7 @@
         <v>44007</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1733,7 +2357,7 @@
         <v>44008</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1741,7 +2365,7 @@
         <v>44009</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,7 +2373,7 @@
         <v>44010</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1757,7 +2381,7 @@
         <v>44011</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1765,7 +2389,7 @@
         <v>44012</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1773,7 +2397,7 @@
         <v>44013</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/2020_1/projeto_integrador/GRUPOS v2.xlsx
+++ b/2020_1/projeto_integrador/GRUPOS v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rambim\Documents\iesb\2020_1\projeto_integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C60A9-2E4C-47AF-9B88-905C2A437568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81E42B-F08A-4D1C-8373-4DE761DB52A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="76">
   <si>
     <t>GRUPO</t>
   </si>
@@ -874,7 +874,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,12 +1066,8 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1080,24 +1076,12 @@
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>75</v>
-      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
